--- a/格式代码保留/日语原文/Enemies.xlsx
+++ b/格式代码保留/日语原文/Enemies.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AiNiee-Test-Dataset\格式代码保留\日语原文\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D15F1AC-B3B4-4DD6-9BE1-C0EC66505FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Original Text</t>
   </si>
@@ -200,17 +218,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,28 +237,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -529,19 +557,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="110.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,263 +586,254 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/格式代码保留/日语原文/Enemies.xlsx
+++ b/格式代码保留/日语原文/Enemies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AiNiee-Test-Dataset\格式代码保留\日语原文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D15F1AC-B3B4-4DD6-9BE1-C0EC66505FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95CDAB8-19B0-483F-A35D-CE678BC06A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,14 +50,6 @@
     <t>Best translation</t>
   </si>
   <si>
-    <t>ゴブリン</t>
-  </si>
-  <si>
-    <t>&lt;InitialState:108&gt;
-土属性
-風弱点</t>
-  </si>
-  <si>
     <t>ノーム</t>
   </si>
   <si>
@@ -67,159 +59,469 @@
     <t>トレント</t>
   </si>
   <si>
+    <t>テスト用雑魚</t>
+  </si>
+  <si>
+    <t>--神樹の森--</t>
+  </si>
+  <si>
+    <t>[土]ゴブリン</t>
+  </si>
+  <si>
+    <t>[風]噛み犬</t>
+  </si>
+  <si>
+    <t>--水・街道--</t>
+  </si>
+  <si>
+    <t>[火]野良サラマンダー</t>
+  </si>
+  <si>
+    <t>--水・コルタ山--</t>
+  </si>
+  <si>
+    <t>[土]大地の光</t>
+  </si>
+  <si>
+    <t>[火]燃木の芽</t>
+  </si>
+  <si>
+    <t>[火]燃木</t>
+  </si>
+  <si>
+    <t>[火]レッドゴブリン</t>
+  </si>
+  <si>
+    <t>--水・地下水路B1--</t>
+  </si>
+  <si>
+    <t>[水]汚泥ゲル</t>
+  </si>
+  <si>
+    <t>[火]汚泥ゲル</t>
+  </si>
+  <si>
+    <t>[火]汚物スライム</t>
+  </si>
+  <si>
+    <t>--水・地下水路B2--</t>
+  </si>
+  <si>
+    <t>[水]汚物スライム</t>
+  </si>
+  <si>
+    <t>たまにヘドロ攻撃</t>
+  </si>
+  <si>
+    <t>[水]下水魚</t>
+  </si>
+  <si>
+    <t>--水・地下水路B3--</t>
+  </si>
+  <si>
+    <t>[水]巨大スライム</t>
+  </si>
+  <si>
+    <t>--火・城塞の抜け道--</t>
+  </si>
+  <si>
+    <t>[土]アメイジング・スパイダー</t>
+  </si>
+  <si>
+    <t>[水]水霊</t>
+  </si>
+  <si>
+    <t>[風]要塞の亡霊</t>
+  </si>
+  <si>
+    <t>--火・コロシアム--</t>
+  </si>
+  <si>
+    <t>闘士</t>
+  </si>
+  <si>
+    <t>--水・街道（ゴロツキ）--</t>
+  </si>
+  <si>
+    <t>[火]灼肌のゴブリン</t>
+  </si>
+  <si>
+    <t>--雨の街道--</t>
+  </si>
+  <si>
+    <t>[水]イビルゼリー</t>
+  </si>
+  <si>
     <t>魔獣</t>
-  </si>
-  <si>
-    <t>テスト用雑魚</t>
-  </si>
-  <si>
-    <t>--神樹の森--</t>
-  </si>
-  <si>
-    <t>[土]ゴブリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;InitialState:118&gt;
-土属性　風弱点
-ミハエラの魔法（弱点）なら一発
-</t>
-  </si>
-  <si>
-    <t>[風]噛み犬</t>
-  </si>
-  <si>
-    <t>&lt;InitialState:115&gt;
-風属性　火弱点
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;InitialState:115&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>風属性　火弱点
 ミハエラとエレクトラの火属性魔法で
 １ターンで処理できる。</t>
-  </si>
-  <si>
-    <t>--水・街道--</t>
-  </si>
-  <si>
-    <t>[水]もたつきリザード</t>
-  </si>
-  <si>
-    <t>&lt;InitialState:111&gt;
-水属性　土弱点</t>
-  </si>
-  <si>
-    <t>[火]野良サラマンダー</t>
-  </si>
-  <si>
-    <t>&lt;InitialState:108&gt;
-火属性　水弱点</t>
-  </si>
-  <si>
-    <t>[火]充血目玉</t>
-  </si>
-  <si>
-    <t>--水・コルタ山--</t>
-  </si>
-  <si>
-    <t>[土]大地の光</t>
-  </si>
-  <si>
-    <t>&lt;InitialState:118&gt;
-土属性　風弱点</t>
-  </si>
-  <si>
-    <t>[火]燃木の芽</t>
-  </si>
-  <si>
-    <t>[火]燃木</t>
-  </si>
-  <si>
-    <t>[火]レッドゴブリン</t>
-  </si>
-  <si>
-    <t>--水・地下水路B1--</t>
-  </si>
-  <si>
-    <t>[水]汚泥ゲル</t>
-  </si>
-  <si>
-    <t>&lt;InitialState:111&gt;
-水属性　土弱点
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;InitialState:111&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水属性　土弱点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充血目玉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;InitialState:118&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土属性　風弱点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;InitialState:112&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水属性　土弱点　過激</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;InitialState:108&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">レベル６
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;InitialState:108&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火属性　水弱点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>たまにヘドロ攻撃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;InitialState:111&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水属性　土弱点
 たまにヘドロ攻撃</t>
-  </si>
-  <si>
-    <t>[火]汚泥ゲル</t>
-  </si>
-  <si>
-    <t>&lt;InitialState:108&gt;
-火属性　水弱点
-たまにヘドロ攻撃</t>
-  </si>
-  <si>
-    <t>[火]汚物スライム</t>
-  </si>
-  <si>
-    <t>--水・地下水路B2--</t>
-  </si>
-  <si>
-    <t>[水]汚物スライム</t>
-  </si>
-  <si>
-    <t>たまにヘドロ攻撃</t>
-  </si>
-  <si>
-    <t>[水]下水魚</t>
-  </si>
-  <si>
-    <t>--水・地下水路B3--</t>
-  </si>
-  <si>
-    <t>[水]巨大スライム</t>
-  </si>
-  <si>
-    <t>--火・城塞の抜け道--</t>
-  </si>
-  <si>
-    <t>[風]アメイジング・スパイダー</t>
-  </si>
-  <si>
-    <t>[土]アメイジング・スパイダー</t>
-  </si>
-  <si>
-    <t>[水]水霊</t>
-  </si>
-  <si>
-    <t>[風]要塞の亡霊</t>
-  </si>
-  <si>
-    <t>--火・コロシアム--</t>
-  </si>
-  <si>
-    <t>闘士</t>
-  </si>
-  <si>
-    <t>--水・街道（ゴロツキ）--</t>
-  </si>
-  <si>
-    <t>[火]灼肌のゴブリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;InitialState:108&gt;
-レベル６
-</t>
-  </si>
-  <si>
-    <t>--雨の街道--</t>
-  </si>
-  <si>
-    <t>[水]イビルゼリー</t>
-  </si>
-  <si>
-    <t>&lt;InitialState:112&gt;
-水属性　土弱点　過激</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>風</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>アメイジング・スパイダー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>もたつきリザード</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;InitialState:108&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火属性　水弱点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;InitialState:118&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">土属性　風弱点
+ミハエラの魔法（弱点）なら一発
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\name[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>丝E]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>//F[N1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ゴブリン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>//F[N1]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;InitialState:108&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土属性
+風弱点//F[N1]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -230,6 +532,26 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -252,8 +574,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -560,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,249 +913,249 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="93.6" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="76.8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="45.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="60" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="60" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
